--- a/TNR_JDD/RO/JDD.RO.FOU.xlsx
+++ b/TNR_JDD/RO/JDD.RO.FOU.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="1" windowHeight="7872" windowWidth="5064" xWindow="-828" yWindow="348"/>
+    <workbookView windowHeight="7872" windowWidth="5064" xWindow="-828" yWindow="348"/>
   </bookViews>
   <sheets>
     <sheet name="Version" r:id="rId1" sheetId="1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="131">
   <si>
     <t>Date</t>
   </si>
@@ -111,6 +111,24 @@
     <t>Champ</t>
   </si>
   <si>
+    <t>TYPE</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">PK en </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>rouge</t>
+    </r>
+  </si>
+  <si>
     <t>001</t>
   </si>
   <si>
@@ -126,6 +144,9 @@
     <t>$FOURNISSEUR$</t>
   </si>
   <si>
+    <t>varchar(30)</t>
+  </si>
+  <si>
     <t>ID_CODPAI</t>
   </si>
   <si>
@@ -162,6 +183,9 @@
     <t>Postface</t>
   </si>
   <si>
+    <t>numeric</t>
+  </si>
+  <si>
     <t>ID_EXT</t>
   </si>
   <si>
@@ -174,18 +198,27 @@
     <t>$GESTIONNAIRE$</t>
   </si>
   <si>
+    <t>varchar(200)</t>
+  </si>
+  <si>
     <t>ST_NOM</t>
   </si>
   <si>
     <t>Nom @FOURNISSEUR@</t>
   </si>
   <si>
+    <t>varchar(50)</t>
+  </si>
+  <si>
     <t>ST_TELPHO</t>
   </si>
   <si>
     <t>Telephone</t>
   </si>
   <si>
+    <t>varchar(25)</t>
+  </si>
+  <si>
     <t>ST_TELEX</t>
   </si>
   <si>
@@ -204,12 +237,18 @@
     <t>Adresse E-Mail</t>
   </si>
   <si>
+    <t>varchar(40)</t>
+  </si>
+  <si>
     <t>ST_ADR</t>
   </si>
   <si>
     <t>Adresse</t>
   </si>
   <si>
+    <t>varchar(100)</t>
+  </si>
+  <si>
     <t>ST_ADRCOM</t>
   </si>
   <si>
@@ -222,6 +261,9 @@
     <t>Code postal</t>
   </si>
   <si>
+    <t>varchar(11)</t>
+  </si>
+  <si>
     <t>ST_VIL</t>
   </si>
   <si>
@@ -240,6 +282,9 @@
     <t>Code pays</t>
   </si>
   <si>
+    <t>varchar(4)</t>
+  </si>
+  <si>
     <t>ST_CON</t>
   </si>
   <si>
@@ -252,6 +297,9 @@
     <t>Prix delai</t>
   </si>
   <si>
+    <t>varchar(12)</t>
+  </si>
+  <si>
     <t>ST_REL</t>
   </si>
   <si>
@@ -264,6 +312,9 @@
     <t>Notes produits</t>
   </si>
   <si>
+    <t>varchar(22)</t>
+  </si>
+  <si>
     <t>NU_REM</t>
   </si>
   <si>
@@ -312,6 +363,9 @@
     <t>Constructeur</t>
   </si>
   <si>
+    <t>boolean</t>
+  </si>
+  <si>
     <t>ID_CODUTI</t>
   </si>
   <si>
@@ -345,6 +399,9 @@
     <t>téléphone mobile</t>
   </si>
   <si>
+    <t>varchar(20)</t>
+  </si>
+  <si>
     <t>ST_CODCOM</t>
   </si>
   <si>
@@ -366,6 +423,9 @@
     <t>Trace date création</t>
   </si>
   <si>
+    <t>datetime(NULL)</t>
+  </si>
+  <si>
     <t>DT_TRAUPD</t>
   </si>
   <si>
@@ -384,7 +444,7 @@
     <t>JM Lafarge</t>
   </si>
   <si>
-    <t>Initialisation</t>
+    <t>Création de l'onglet 001 pour la table FOU</t>
   </si>
 </sst>
 </file>
@@ -394,7 +454,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/MM/yyyy"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="19">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -517,6 +577,12 @@
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
     </font>
   </fonts>
   <fills count="12">
@@ -693,7 +759,7 @@
     <xf borderId="2" fillId="0" fontId="1" numFmtId="0"/>
     <xf borderId="2" fillId="0" fontId="16" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
@@ -740,6 +806,7 @@
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="11" fontId="14" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="11" fontId="2" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="true" applyNumberFormat="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="true"/>
   </cellXfs>
@@ -961,15 +1028,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G976"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
       <selection activeCell="F1" pane="bottomLeft" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" customHeight="1" defaultColWidth="12.6640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" customWidth="true" width="10.6640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="29.88671875" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="10.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="17.77734375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="59.0" collapsed="true"/>
     <col min="4" max="4" customWidth="true" width="10.6640625" collapsed="true"/>
     <col min="5" max="5" customWidth="true" width="12.109375" collapsed="true"/>
     <col min="6" max="26" customWidth="true" width="10.6640625" collapsed="true"/>
@@ -996,20 +1064,20 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n" s="20">
-        <v>45005.65936306713</v>
-      </c>
-      <c r="B2" t="s" s="21">
-        <v>113</v>
-      </c>
-      <c r="C2" t="s" s="21">
-        <v>114</v>
-      </c>
-      <c r="D2" t="s" s="21">
-        <v>25</v>
-      </c>
-      <c r="E2" t="s" s="21">
-        <v>25</v>
+      <c r="A2" t="n" s="21">
+        <v>45005.726601574075</v>
+      </c>
+      <c r="B2" t="s" s="22">
+        <v>129</v>
+      </c>
+      <c r="C2" t="s" s="22">
+        <v>130</v>
+      </c>
+      <c r="D2" t="s" s="22">
+        <v>27</v>
+      </c>
+      <c r="E2" t="s" s="22">
+        <v>27</v>
       </c>
     </row>
     <row customHeight="1" ht="12.75" r="3" spans="1:6"/>
@@ -1996,411 +2064,547 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G880"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane activePane="bottomRight" state="frozen" topLeftCell="B3" xSplit="1" ySplit="2"/>
       <selection activeCell="B1" pane="topRight" sqref="B1"/>
       <selection activeCell="A3" pane="bottomLeft" sqref="A3"/>
-      <selection activeCell="C1" pane="bottomRight" sqref="C1:C1048576"/>
+      <selection activeCell="C7" pane="bottomRight" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" customHeight="1" defaultColWidth="12.6640625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" customWidth="true" width="13.44140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="61.44140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="28.109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.6640625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="11.88671875" collapsed="true"/>
-    <col min="6" max="26" customWidth="true" width="10.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="53.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="24.44140625" collapsed="false"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="28.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="10.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="11.88671875" collapsed="true"/>
+    <col min="7" max="27" customWidth="true" width="10.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="12.75" r="1" spans="1:5">
+    <row customHeight="1" ht="12.75" r="1" spans="1:6">
       <c r="A1" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.75" r="2" spans="1:5">
+    <row customHeight="1" ht="12.75" r="2" spans="1:6">
       <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="9"/>
       <c r="E2" s="9"/>
-    </row>
-    <row customHeight="1" ht="12.75" r="3" spans="1:5">
+      <c r="F2" s="9"/>
+    </row>
+    <row customHeight="1" ht="12.75" r="3" spans="1:6">
       <c r="A3" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="D3" s="4" t="n">
         <v>1014.0</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" t="s" s="4">
-        <v>25</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="12.75" r="4" spans="1:5">
+        <v>27</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.75" r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="12.75" r="5" spans="1:5">
+        <v>29</v>
+      </c>
+      <c r="C4" t="s" s="20">
+        <v>30</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.75" r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="12.75" r="6" spans="1:5">
+        <v>32</v>
+      </c>
+      <c r="C5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.75" r="6" spans="1:6">
       <c r="A6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" t="s">
         <v>30</v>
       </c>
-      <c r="B6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="12.75" r="7" spans="1:5">
+    </row>
+    <row customHeight="1" ht="12.75" r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="12.75" r="8" spans="1:5">
+        <v>36</v>
+      </c>
+      <c r="C7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.75" r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="12.75" r="9" spans="1:5">
+        <v>38</v>
+      </c>
+      <c r="C8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.75" r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="12.75" r="10" spans="1:5">
+        <v>40</v>
+      </c>
+      <c r="C9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.75" r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="12.75" r="11" spans="1:5">
+        <v>42</v>
+      </c>
+      <c r="C10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.75" r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="12.75" r="12" spans="1:5">
+        <v>45</v>
+      </c>
+      <c r="C11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.75" r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="12.75" r="13" spans="1:5">
+        <v>47</v>
+      </c>
+      <c r="C12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.75" r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B13" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="12.75" r="14" spans="1:5">
+        <v>50</v>
+      </c>
+      <c r="C13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.75" r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B14" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="12.75" r="15" spans="1:5">
+        <v>53</v>
+      </c>
+      <c r="C14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.75" r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="B15" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="12.75" r="16" spans="1:5">
+        <v>56</v>
+      </c>
+      <c r="C15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.75" r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B16" t="s">
-        <v>51</v>
+        <v>58</v>
+      </c>
+      <c r="C16" t="s">
+        <v>54</v>
       </c>
     </row>
     <row customHeight="1" ht="12.75" r="17">
       <c r="A17" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="B17" t="s">
-        <v>53</v>
+        <v>60</v>
+      </c>
+      <c r="C17" t="s">
+        <v>61</v>
       </c>
     </row>
     <row customHeight="1" ht="12.75" r="18">
       <c r="A18" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="B18" t="s">
-        <v>55</v>
+        <v>63</v>
+      </c>
+      <c r="C18" t="s">
+        <v>64</v>
       </c>
     </row>
     <row customHeight="1" ht="12.75" r="19">
       <c r="A19" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="B19" t="s">
-        <v>57</v>
+        <v>66</v>
+      </c>
+      <c r="C19" t="s">
+        <v>64</v>
       </c>
     </row>
     <row customHeight="1" ht="12.75" r="20">
       <c r="A20" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="B20" t="s">
-        <v>59</v>
+        <v>68</v>
+      </c>
+      <c r="C20" t="s">
+        <v>69</v>
       </c>
     </row>
     <row customHeight="1" ht="12.75" r="21">
       <c r="A21" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="B21" t="s">
-        <v>61</v>
+        <v>71</v>
+      </c>
+      <c r="C21" t="s">
+        <v>51</v>
       </c>
     </row>
     <row customHeight="1" ht="12.75" r="22">
       <c r="A22" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="B22" t="s">
-        <v>63</v>
+        <v>73</v>
+      </c>
+      <c r="C22" t="s">
+        <v>51</v>
       </c>
     </row>
     <row customHeight="1" ht="12.75" r="23">
       <c r="A23" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="B23" t="s">
-        <v>65</v>
+        <v>75</v>
+      </c>
+      <c r="C23" t="s">
+        <v>76</v>
       </c>
     </row>
     <row customHeight="1" ht="12.75" r="24">
       <c r="A24" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="B24" t="s">
-        <v>67</v>
+        <v>78</v>
+      </c>
+      <c r="C24" t="s">
+        <v>51</v>
       </c>
     </row>
     <row customHeight="1" ht="12.75" r="25">
       <c r="A25" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="B25" t="s">
-        <v>69</v>
+        <v>80</v>
+      </c>
+      <c r="C25" t="s">
+        <v>81</v>
       </c>
     </row>
     <row customHeight="1" ht="12.75" r="26">
       <c r="A26" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="B26" t="s">
-        <v>71</v>
+        <v>83</v>
+      </c>
+      <c r="C26" t="s">
+        <v>81</v>
       </c>
     </row>
     <row customHeight="1" ht="12.75" r="27">
       <c r="A27" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="B27" t="s">
-        <v>73</v>
+        <v>85</v>
+      </c>
+      <c r="C27" t="s">
+        <v>86</v>
       </c>
     </row>
     <row customHeight="1" ht="12.75" r="28">
       <c r="A28" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="B28" t="s">
-        <v>75</v>
+        <v>88</v>
+      </c>
+      <c r="C28" t="s">
+        <v>43</v>
       </c>
     </row>
     <row customHeight="1" ht="12.75" r="29">
       <c r="A29" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="B29" t="s">
-        <v>77</v>
+        <v>90</v>
+      </c>
+      <c r="C29" t="s">
+        <v>51</v>
       </c>
     </row>
     <row customHeight="1" ht="12.75" r="30">
       <c r="A30" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="B30" t="s">
-        <v>79</v>
+        <v>92</v>
+      </c>
+      <c r="C30" t="s">
+        <v>51</v>
       </c>
     </row>
     <row customHeight="1" ht="12.75" r="31">
       <c r="A31" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="B31" t="s">
-        <v>81</v>
+        <v>94</v>
+      </c>
+      <c r="C31" t="s">
+        <v>51</v>
       </c>
     </row>
     <row customHeight="1" ht="12.75" r="32">
       <c r="A32" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="B32" t="s">
-        <v>83</v>
+        <v>96</v>
+      </c>
+      <c r="C32" t="s">
+        <v>51</v>
       </c>
     </row>
     <row customHeight="1" ht="12.75" r="33">
       <c r="A33" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="B33" t="s">
-        <v>85</v>
+        <v>98</v>
+      </c>
+      <c r="C33" t="s">
+        <v>51</v>
       </c>
     </row>
     <row customHeight="1" ht="12.75" r="34">
       <c r="A34" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="B34" t="s">
-        <v>87</v>
+        <v>100</v>
+      </c>
+      <c r="C34" t="s">
+        <v>51</v>
       </c>
     </row>
     <row customHeight="1" ht="12.75" r="35">
       <c r="A35" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="B35" t="s">
-        <v>89</v>
+        <v>102</v>
+      </c>
+      <c r="C35" t="s">
+        <v>103</v>
       </c>
     </row>
     <row customHeight="1" ht="12.75" r="36">
       <c r="A36" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="B36" t="s">
-        <v>91</v>
+        <v>105</v>
+      </c>
+      <c r="C36" t="s">
+        <v>51</v>
       </c>
     </row>
     <row customHeight="1" ht="12.75" r="37">
       <c r="A37" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="B37" t="s">
-        <v>93</v>
+        <v>107</v>
+      </c>
+      <c r="C37" t="s">
+        <v>103</v>
       </c>
     </row>
     <row customHeight="1" ht="12.75" r="38">
       <c r="A38" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="B38"/>
+      <c r="C38" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row customHeight="1" ht="12.75" r="39">
       <c r="A39" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="B39" t="s">
-        <v>96</v>
+        <v>110</v>
+      </c>
+      <c r="C39" t="s">
+        <v>103</v>
       </c>
     </row>
     <row customHeight="1" ht="12.75" r="40">
       <c r="A40" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="B40" t="s">
-        <v>98</v>
+        <v>112</v>
+      </c>
+      <c r="C40" t="s">
+        <v>103</v>
       </c>
     </row>
     <row customHeight="1" ht="12.75" r="41">
       <c r="A41" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="B41" t="s">
-        <v>100</v>
+        <v>114</v>
+      </c>
+      <c r="C41" t="s">
+        <v>115</v>
       </c>
     </row>
     <row customHeight="1" ht="12.75" r="42">
       <c r="A42" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="B42"/>
+      <c r="C42" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row customHeight="1" ht="12.75" r="43">
       <c r="A43" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="B43" t="s">
-        <v>103</v>
+        <v>118</v>
+      </c>
+      <c r="C43" t="s">
+        <v>51</v>
       </c>
     </row>
     <row customHeight="1" ht="12.75" r="44">
       <c r="A44" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="B44" t="s">
-        <v>105</v>
+        <v>120</v>
+      </c>
+      <c r="C44" t="s">
+        <v>51</v>
       </c>
     </row>
     <row customHeight="1" ht="12.75" r="45">
       <c r="A45" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="B45" t="s">
-        <v>107</v>
+        <v>122</v>
+      </c>
+      <c r="C45" t="s">
+        <v>123</v>
       </c>
     </row>
     <row customHeight="1" ht="12.75" r="46">
       <c r="A46" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="B46" t="s">
-        <v>109</v>
+        <v>125</v>
+      </c>
+      <c r="C46" t="s">
+        <v>123</v>
       </c>
     </row>
     <row customHeight="1" ht="12.75" r="47"/>
@@ -6338,136 +6542,136 @@
   <sheetData>
     <row customFormat="1" customHeight="1" ht="15.75" r="1" s="19" spans="1:2">
       <c r="A1" s="15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C1" t="s" s="19">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D1" t="s" s="19">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E1" t="s" s="19">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F1" t="s" s="19">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G1" t="s" s="19">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H1" t="s" s="19">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I1" t="s" s="19">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J1" t="s" s="19">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="K1" t="s" s="19">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="L1" t="s" s="19">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="M1" t="s" s="19">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="N1" t="s" s="19">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="O1" t="s" s="19">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="P1" t="s" s="19">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="Q1" t="s" s="19">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="R1" t="s" s="19">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="S1" t="s" s="19">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="T1" t="s" s="19">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="U1" t="s" s="19">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="V1" t="s" s="19">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="W1" t="s" s="19">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="X1" t="s" s="19">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="Y1" t="s" s="19">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="Z1" t="s" s="19">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="AA1" t="s" s="19">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="AB1" t="s" s="19">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="AC1" t="s" s="19">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="AD1" t="s" s="19">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="AE1" t="s" s="19">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="AF1" t="s" s="19">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="AG1" t="s" s="19">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="AH1" t="s" s="19">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="AI1" t="s" s="19">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="AJ1" t="s" s="19">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="AK1" t="s" s="19">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="AL1" t="s" s="19">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="AM1" t="s" s="19">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="AN1" t="s" s="19">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="AO1" t="s" s="19">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="AP1" t="s" s="19">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="AQ1" t="s" s="19">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="AR1" t="s" s="19">
-        <v>108</v>
+        <v>124</v>
       </c>
     </row>
     <row ht="13.2" r="2" spans="1:2">
@@ -6483,7 +6687,7 @@
       <c r="H2" s="13"/>
       <c r="I2" s="13"/>
       <c r="J2" s="13" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="K2" s="13"/>
       <c r="L2" s="13"/>
@@ -6629,17 +6833,17 @@
       <c r="H5" s="13"/>
       <c r="I5" s="13"/>
       <c r="J5" s="13" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="K5" s="13" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="L5" s="13" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="M5" s="13"/>
       <c r="N5" s="13" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="O5" s="13"/>
       <c r="P5" s="13"/>
@@ -6662,13 +6866,13 @@
       <c r="AG5" s="13"/>
       <c r="AH5" s="13"/>
       <c r="AI5" s="13" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="AJ5" s="13"/>
       <c r="AK5" s="13"/>
       <c r="AL5" s="13"/>
       <c r="AM5" s="13" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="AN5" s="13"/>
       <c r="AO5" s="13"/>

--- a/TNR_JDD/RO/JDD.RO.FOU.xlsx
+++ b/TNR_JDD/RO/JDD.RO.FOU.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-828" yWindow="348" windowWidth="5064" windowHeight="7872" activeTab="2"/>
+    <workbookView xWindow="-828" yWindow="348" windowWidth="5064" windowHeight="7872" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Version" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="160">
   <si>
     <t>Date</t>
   </si>
@@ -458,12 +458,87 @@
   <si>
     <t>RO.FOU.004.SUP.01</t>
   </si>
+  <si>
+    <t>ALL</t>
+  </si>
+  <si>
+    <t>a_Fournisseur</t>
+  </si>
+  <si>
+    <t>a_Commande</t>
+  </si>
+  <si>
+    <t>a_Notes</t>
+  </si>
+  <si>
+    <t>a_FournisseurSelected</t>
+  </si>
+  <si>
+    <t>a_CommandeSelected</t>
+  </si>
+  <si>
+    <t>a_NotesSelected</t>
+  </si>
+  <si>
+    <t>$TAB$ID_CODFOU</t>
+  </si>
+  <si>
+    <t>$TABSELECTED$ID_CODFOU</t>
+  </si>
+  <si>
+    <t>$TAB$ID_NUMCDE</t>
+  </si>
+  <si>
+    <t>$TABSELECTED$ID_NUMCDE</t>
+  </si>
+  <si>
+    <t>$TAB$NOTES</t>
+  </si>
+  <si>
+    <t>$TABSELECTED$NOTES</t>
+  </si>
+  <si>
+    <t>ST_DESGES</t>
+  </si>
+  <si>
+    <t>ST_DESID_CODMOD</t>
+  </si>
+  <si>
+    <t>ST_DESID_CODPAI</t>
+  </si>
+  <si>
+    <t>ST_DESID_CODDEV</t>
+  </si>
+  <si>
+    <t>ST_DESID_CODPOR</t>
+  </si>
+  <si>
+    <t>ST_DESID_CODEMB</t>
+  </si>
+  <si>
+    <t>ST_DES*GES*ID_CODGES</t>
+  </si>
+  <si>
+    <t>Ajout des rubriques IHM pour l'onglet 001</t>
+  </si>
+  <si>
+    <t>input_Filtre_Grille</t>
+  </si>
+  <si>
+    <t>td_Grille</t>
+  </si>
+  <si>
+    <t>$FILTREGRILLE$ID_CODFOU</t>
+  </si>
+  <si>
+    <t>$TDGRILLE$ID_CODFOU</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="19">
+  <fonts count="23">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -592,9 +667,34 @@
       <sz val="11"/>
       <color indexed="10"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -661,8 +761,13 @@
         <bgColor rgb="FFA7E3B7"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="44"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -707,8 +812,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="11">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2"/>
@@ -720,8 +840,10 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="2"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -768,9 +890,19 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="12" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="12" quotePrefix="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="11">
+  <cellStyles count="13">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 10" xfId="11"/>
+    <cellStyle name="Normal 11" xfId="12"/>
     <cellStyle name="Normal 2" xfId="3"/>
     <cellStyle name="Normal 2 2" xfId="6"/>
     <cellStyle name="Normal 3" xfId="2"/>
@@ -1039,7 +1171,23 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="12.75" customHeight="1"/>
+    <row r="3" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A3" s="25">
+        <v>45011.757910856482</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>155</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="26" t="s">
+        <v>27</v>
+      </c>
+    </row>
     <row r="4" spans="1:6" ht="12.75" customHeight="1"/>
     <row r="5" spans="1:6" ht="12.75" customHeight="1"/>
     <row r="6" spans="1:6" ht="12.75" customHeight="1"/>
@@ -3409,13 +3557,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AR1000"/>
+  <dimension ref="A1:AY1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="A19" sqref="A19"/>
+      <selection pane="bottomRight" activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -3423,7 +3571,7 @@
     <col min="1" max="1" width="31.88671875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" s="18" customFormat="1" ht="15.75" customHeight="1">
+    <row r="1" spans="1:51" s="18" customFormat="1" ht="15.75" customHeight="1">
       <c r="A1" s="14" t="s">
         <v>26</v>
       </c>
@@ -3556,8 +3704,29 @@
       <c r="AR1" s="18" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="2" spans="1:44" ht="24">
+      <c r="AS1" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="AT1" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="AU1" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="AV1" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="AW1" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="AX1" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="AY1" s="24" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="2" spans="1:51" ht="24">
       <c r="A2" s="12" t="s">
         <v>15</v>
       </c>
@@ -3606,8 +3775,15 @@
       <c r="AP2" s="12"/>
       <c r="AQ2" s="12"/>
       <c r="AR2" s="12"/>
-    </row>
-    <row r="3" spans="1:44" ht="13.2">
+      <c r="AS2" s="12"/>
+      <c r="AT2" s="12"/>
+      <c r="AU2" s="12"/>
+      <c r="AV2" s="12"/>
+      <c r="AW2" s="12"/>
+      <c r="AX2" s="12"/>
+      <c r="AY2" s="12"/>
+    </row>
+    <row r="3" spans="1:51" ht="24">
       <c r="A3" s="12" t="s">
         <v>16</v>
       </c>
@@ -3654,8 +3830,17 @@
       <c r="AP3" s="12"/>
       <c r="AQ3" s="12"/>
       <c r="AR3" s="12"/>
-    </row>
-    <row r="4" spans="1:44" ht="13.2">
+      <c r="AS3" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="AT3" s="12"/>
+      <c r="AU3" s="12"/>
+      <c r="AV3" s="12"/>
+      <c r="AW3" s="12"/>
+      <c r="AX3" s="12"/>
+      <c r="AY3" s="12"/>
+    </row>
+    <row r="4" spans="1:51" ht="13.2">
       <c r="A4" s="12" t="s">
         <v>18</v>
       </c>
@@ -3702,17 +3887,36 @@
       <c r="AP4" s="12"/>
       <c r="AQ4" s="12"/>
       <c r="AR4" s="12"/>
-    </row>
-    <row r="5" spans="1:44" ht="13.2">
+      <c r="AS4" s="12"/>
+      <c r="AT4" s="12"/>
+      <c r="AU4" s="12"/>
+      <c r="AV4" s="12"/>
+      <c r="AW4" s="12"/>
+      <c r="AX4" s="12"/>
+      <c r="AY4" s="12"/>
+    </row>
+    <row r="5" spans="1:51" ht="13.2">
       <c r="A5" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
+      <c r="B5" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>127</v>
+      </c>
       <c r="H5" s="12"/>
       <c r="I5" s="12"/>
       <c r="J5" s="12" t="s">
@@ -3724,46 +3928,99 @@
       <c r="L5" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="M5" s="12"/>
+      <c r="M5" s="12" t="s">
+        <v>127</v>
+      </c>
       <c r="N5" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="O5" s="12"/>
+      <c r="O5" s="12" t="s">
+        <v>127</v>
+      </c>
       <c r="P5" s="12"/>
       <c r="Q5" s="12"/>
       <c r="R5" s="12"/>
       <c r="S5" s="12"/>
       <c r="T5" s="12"/>
       <c r="U5" s="12"/>
-      <c r="V5" s="12"/>
-      <c r="W5" s="12"/>
-      <c r="X5" s="12"/>
-      <c r="Y5" s="12"/>
+      <c r="V5" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="W5" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="X5" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y5" s="12" t="s">
+        <v>127</v>
+      </c>
       <c r="Z5" s="12"/>
-      <c r="AA5" s="12"/>
-      <c r="AB5" s="12"/>
-      <c r="AC5" s="12"/>
-      <c r="AD5" s="12"/>
-      <c r="AE5" s="12"/>
-      <c r="AF5" s="12"/>
-      <c r="AG5" s="12"/>
+      <c r="AA5" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="AB5" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="AC5" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD5" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="AE5" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="AF5" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="AG5" s="12" t="s">
+        <v>128</v>
+      </c>
       <c r="AH5" s="12"/>
       <c r="AI5" s="12" t="s">
         <v>128</v>
       </c>
       <c r="AJ5" s="12"/>
-      <c r="AK5" s="12"/>
-      <c r="AL5" s="12"/>
+      <c r="AK5" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="AL5" s="12" t="s">
+        <v>128</v>
+      </c>
       <c r="AM5" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="AN5" s="12"/>
+      <c r="AN5" s="12" t="s">
+        <v>127</v>
+      </c>
       <c r="AO5" s="12"/>
       <c r="AP5" s="12"/>
       <c r="AQ5" s="12"/>
       <c r="AR5" s="12"/>
-    </row>
-    <row r="6" spans="1:44" ht="14.4" customHeight="1">
+      <c r="AS5" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="AT5" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="AU5" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="AV5" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="AW5" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="AX5" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="AY5" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="6" spans="1:51" ht="14.4" customHeight="1">
       <c r="A6" s="13" t="s">
         <v>14</v>
       </c>
@@ -3810,43 +4067,50 @@
       <c r="AP6" s="13"/>
       <c r="AQ6" s="13"/>
       <c r="AR6" s="13"/>
-    </row>
-    <row r="7" spans="1:44" ht="15.75" customHeight="1">
+      <c r="AS6" s="13"/>
+      <c r="AT6" s="13"/>
+      <c r="AU6" s="13"/>
+      <c r="AV6" s="13"/>
+      <c r="AW6" s="13"/>
+      <c r="AX6" s="13"/>
+      <c r="AY6" s="13"/>
+    </row>
+    <row r="7" spans="1:51" ht="15.75" customHeight="1">
       <c r="A7" s="11" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="8" spans="1:44" ht="15.75" customHeight="1">
+    <row r="8" spans="1:51" ht="15.75" customHeight="1">
       <c r="A8" s="11" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="9" spans="1:44" ht="15.75" customHeight="1">
+    <row r="9" spans="1:51" ht="15.75" customHeight="1">
       <c r="A9" s="11" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="10" spans="1:44" ht="15.75" customHeight="1">
+    <row r="10" spans="1:51" ht="15.75" customHeight="1">
       <c r="A10" s="11" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="11" spans="1:44" ht="15.75" customHeight="1">
+    <row r="11" spans="1:51" ht="15.75" customHeight="1">
       <c r="A11" s="11"/>
     </row>
-    <row r="12" spans="1:44" ht="15.75" customHeight="1">
+    <row r="12" spans="1:51" ht="15.75" customHeight="1">
       <c r="A12" s="11"/>
     </row>
-    <row r="13" spans="1:44" ht="15.75" customHeight="1">
+    <row r="13" spans="1:51" ht="15.75" customHeight="1">
       <c r="A13" s="11"/>
     </row>
-    <row r="14" spans="1:44" ht="15.75" customHeight="1">
+    <row r="14" spans="1:51" ht="15.75" customHeight="1">
       <c r="A14" s="11"/>
     </row>
-    <row r="15" spans="1:44" ht="15.75" customHeight="1">
+    <row r="15" spans="1:51" ht="15.75" customHeight="1">
       <c r="A15" s="11"/>
     </row>
-    <row r="16" spans="1:44" ht="15.75" customHeight="1">
+    <row r="16" spans="1:51" ht="15.75" customHeight="1">
       <c r="A16" s="11"/>
     </row>
     <row r="17" spans="1:1" ht="15.75" customHeight="1">
@@ -6809,15 +7073,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
   <cols>
+    <col min="2" max="2" width="19.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="86.33203125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
@@ -6830,6 +7095,94 @@
       </c>
       <c r="C1" s="17" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="B7" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>

--- a/TNR_JDD/RO/JDD.RO.FOU.xlsx
+++ b/TNR_JDD/RO/JDD.RO.FOU.xlsx
@@ -907,13 +907,13 @@
     <t>TD_Adresse</t>
   </si>
   <si>
-    <t>//div[@id='v-dbtdhtmlxADR']/table/tbody//td[5][text()='${adresse}']</t>
-  </si>
-  <si>
     <t>//a[@id='upd']</t>
   </si>
   <si>
     <t>BTN_ModifierAdresse</t>
+  </si>
+  <si>
+    <t>//div[@id='v-dbtdhtmlxADR']/table/tbody/tr[2]/td[5]</t>
   </si>
 </sst>
 </file>
@@ -17948,7 +17948,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
+      <selection pane="bottomLeft" activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -18118,10 +18118,10 @@
         <v>232</v>
       </c>
       <c r="B15" s="65" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C15" s="65" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="12.75" customHeight="1">
@@ -18132,7 +18132,7 @@
         <v>275</v>
       </c>
       <c r="C16" s="65" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="17" ht="12.75" customHeight="1"/>
